--- a/data/standartpopulation.xlsx
+++ b/data/standartpopulation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/default/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/default/Desktop/paper2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C378C-6CAB-FD4C-A493-B3323DD54DB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E39980-E44E-E14C-B428-0565EF729044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{2DF76C21-C7C9-5D4E-9518-0491064D716A}"/>
   </bookViews>
@@ -36,13 +36,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>min_age</t>
+    <t>standard_popsize</t>
   </si>
   <si>
-    <t>max_age</t>
+    <t>standard_max_age</t>
   </si>
   <si>
-    <t>popsize</t>
+    <t>standard_min_age</t>
   </si>
 </sst>
 </file>
@@ -396,21 +396,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB2E67A-AD9B-C846-ABC7-90D4EA370725}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
